--- a/ocupacion.xlsx
+++ b/ocupacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbi\Desktop\HackMonterrey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9094DDB7-8175-4B01-B871-2F1963546AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1A1AE7-C411-4BCC-B08C-C6BAA553633E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98DE8477-9DB9-4351-8B62-EB1DF3044323}"/>
   </bookViews>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F387BF2-9D89-4A2B-8994-EBA75DE5BCDD}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,7 +1087,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="3">
-        <v>11.518000000000001</v>
+        <v>11518</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
